--- a/data/interim/P2/P02_006.xlsx
+++ b/data/interim/P2/P02_006.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>553779292.97</v>
+        <v>886334839.0600001</v>
       </c>
       <c r="D2" t="n">
-        <v>230078512.2099999</v>
+        <v>318402277.4400001</v>
       </c>
       <c r="E2" t="n">
-        <v>1080401076.27</v>
+        <v>1702526573.42</v>
       </c>
       <c r="F2" t="n">
-        <v>1824894481.12</v>
+        <v>2699850608.6</v>
       </c>
       <c r="G2" t="n">
         <v>2512726348.629999</v>
@@ -516,10 +516,10 @@
         <v>1541379</v>
       </c>
       <c r="I2" t="n">
-        <v>700.9314881479506</v>
+        <v>1104.547663760827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7262607335315194</v>
+        <v>1.074470608417835</v>
       </c>
     </row>
     <row r="3">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>427264157.13</v>
+        <v>728099249.5600001</v>
       </c>
       <c r="D3" t="n">
-        <v>101950153.93</v>
+        <v>143322988.82</v>
       </c>
       <c r="E3" t="n">
-        <v>539669540.26</v>
+        <v>854368001.1500003</v>
       </c>
       <c r="F3" t="n">
-        <v>917857099.77</v>
+        <v>1361309457.27</v>
       </c>
       <c r="G3" t="n">
         <v>1244959868.81</v>
@@ -552,10 +552,10 @@
         <v>1030595</v>
       </c>
       <c r="I3" t="n">
-        <v>523.6485139749368</v>
+        <v>829.0046052523061</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7372583829929692</v>
+        <v>1.093456497173047</v>
       </c>
     </row>
     <row r="4">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1960400048.18</v>
+        <v>2904803269.78</v>
       </c>
       <c r="D4" t="n">
-        <v>967935584.38</v>
+        <v>1369062754.09</v>
       </c>
       <c r="E4" t="n">
-        <v>3050936818.019999</v>
+        <v>4661547863.379999</v>
       </c>
       <c r="F4" t="n">
-        <v>5666182782.45</v>
+        <v>8009664535.36</v>
       </c>
       <c r="G4" t="n">
         <v>7484022305.449999</v>
@@ -588,10 +588,10 @@
         <v>3168842</v>
       </c>
       <c r="I4" t="n">
-        <v>962.7923443390357</v>
+        <v>1471.057207453069</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7571039410617182</v>
+        <v>1.070235256985701</v>
       </c>
     </row>
     <row r="5">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1519711899.6</v>
+        <v>2489269149.22</v>
       </c>
       <c r="D5" t="n">
-        <v>275480153.1700001</v>
+        <v>384234081.6100001</v>
       </c>
       <c r="E5" t="n">
-        <v>1646786638.32</v>
+        <v>2487090674.92</v>
       </c>
       <c r="F5" t="n">
-        <v>2429059054.2</v>
+        <v>3541499305.249999</v>
       </c>
       <c r="G5" t="n">
         <v>3415259249.61</v>
@@ -624,10 +624,10 @@
         <v>4123715</v>
       </c>
       <c r="I5" t="n">
-        <v>399.3454053735526</v>
+        <v>603.1189534000289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7112370911453889</v>
+        <v>1.036963535243896</v>
       </c>
     </row>
     <row r="6">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>645284405.11</v>
+        <v>883056610.5600001</v>
       </c>
       <c r="D6" t="n">
-        <v>141699442.58</v>
+        <v>203240998.54</v>
       </c>
       <c r="E6" t="n">
-        <v>778385007.4499998</v>
+        <v>1197069070.17</v>
       </c>
       <c r="F6" t="n">
-        <v>1297922431.43</v>
+        <v>1891099072.29</v>
       </c>
       <c r="G6" t="n">
         <v>1789226875.46</v>
@@ -660,10 +660,10 @@
         <v>1205314</v>
       </c>
       <c r="I6" t="n">
-        <v>645.7943800951451</v>
+        <v>993.1595170801966</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7254096443729705</v>
+        <v>1.056936433398816</v>
       </c>
     </row>
     <row r="7">
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>490670168.86</v>
+        <v>739349438.36</v>
       </c>
       <c r="D7" t="n">
-        <v>96283372.77</v>
+        <v>137473119.38</v>
       </c>
       <c r="E7" t="n">
-        <v>504750553.5100001</v>
+        <v>808477114.5599997</v>
       </c>
       <c r="F7" t="n">
-        <v>885999758.4400001</v>
+        <v>1321166816.34</v>
       </c>
       <c r="G7" t="n">
         <v>1261908249.63</v>
@@ -696,10 +696,10 @@
         <v>1253028</v>
       </c>
       <c r="I7" t="n">
-        <v>402.8246403990973</v>
+        <v>645.2187138356044</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7021110755871366</v>
+        <v>1.046959489112917</v>
       </c>
     </row>
     <row r="8">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>468663492.54</v>
+        <v>838093707.29</v>
       </c>
       <c r="D8" t="n">
-        <v>363898923.4399999</v>
+        <v>510278324.0399999</v>
       </c>
       <c r="E8" t="n">
-        <v>1411953602.7</v>
+        <v>2172547158.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2400870400.09</v>
+        <v>3478791827.74</v>
       </c>
       <c r="G8" t="n">
         <v>3277004312.92</v>
@@ -732,10 +732,10 @@
         <v>1682573</v>
       </c>
       <c r="I8" t="n">
-        <v>839.1633543982938</v>
+        <v>1291.205290231092</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7326418188173472</v>
+        <v>1.061576823083335</v>
       </c>
     </row>
     <row r="9">
@@ -750,16 +750,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>445522535.68</v>
+        <v>730737763.9100001</v>
       </c>
       <c r="D9" t="n">
-        <v>129693070.83</v>
+        <v>184400596.11</v>
       </c>
       <c r="E9" t="n">
-        <v>658567469.72</v>
+        <v>1044702469.51</v>
       </c>
       <c r="F9" t="n">
-        <v>1120620572.29</v>
+        <v>1666603116.25</v>
       </c>
       <c r="G9" t="n">
         <v>1520588264.81</v>
@@ -768,10 +768,10 @@
         <v>1366342</v>
       </c>
       <c r="I9" t="n">
-        <v>481.9931391408593</v>
+        <v>764.5980797706577</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7369651589610444</v>
+        <v>1.096025238928333</v>
       </c>
     </row>
     <row r="10">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1525319366.57</v>
+        <v>2222137629.68</v>
       </c>
       <c r="D10" t="n">
-        <v>306813201.03</v>
+        <v>433650980.0500001</v>
       </c>
       <c r="E10" t="n">
-        <v>1693260787.570001</v>
+        <v>2660771675.360001</v>
       </c>
       <c r="F10" t="n">
-        <v>3023907473.689999</v>
+        <v>4407523080.82</v>
       </c>
       <c r="G10" t="n">
         <v>3998140237.3</v>
@@ -804,10 +804,10 @@
         <v>1782883</v>
       </c>
       <c r="I10" t="n">
-        <v>949.7318598977054</v>
+        <v>1492.398365658319</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7563285163133963</v>
+        <v>1.102393317698246</v>
       </c>
     </row>
     <row r="11">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>227399649.92</v>
+        <v>390117643.12</v>
       </c>
       <c r="D11" t="n">
-        <v>239018658.64</v>
+        <v>321164560.5600001</v>
       </c>
       <c r="E11" t="n">
-        <v>680572026.6700001</v>
+        <v>1038350074.64</v>
       </c>
       <c r="F11" t="n">
-        <v>1198721522.59</v>
+        <v>1737127208.959999</v>
       </c>
       <c r="G11" t="n">
         <v>1604121527.86</v>
@@ -840,10 +840,10 @@
         <v>930091</v>
       </c>
       <c r="I11" t="n">
-        <v>731.7262791167747</v>
+        <v>1116.396217832448</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7472760023295556</v>
+        <v>1.082914965474865</v>
       </c>
     </row>
     <row r="12">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>327305388.56</v>
+        <v>578050609.58</v>
       </c>
       <c r="D12" t="n">
-        <v>89412968.28999999</v>
+        <v>120731984.59</v>
       </c>
       <c r="E12" t="n">
-        <v>465740736.5300002</v>
+        <v>710292428.7800002</v>
       </c>
       <c r="F12" t="n">
-        <v>690924077.6700001</v>
+        <v>1016986932.04</v>
       </c>
       <c r="G12" t="n">
-        <v>892394159.9</v>
+        <v>892394159.9000001</v>
       </c>
       <c r="H12" t="n">
         <v>2132417</v>
       </c>
       <c r="I12" t="n">
-        <v>218.409784076004</v>
+        <v>333.0926496928134</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7742364402602363</v>
+        <v>1.139616301561141</v>
       </c>
     </row>
     <row r="13">
@@ -894,28 +894,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1203363057.85</v>
+        <v>2141393978.7</v>
       </c>
       <c r="D13" t="n">
-        <v>237531397.2399999</v>
+        <v>348821194.4399999</v>
       </c>
       <c r="E13" t="n">
-        <v>1731219439.139999</v>
+        <v>2703343889.28</v>
       </c>
       <c r="F13" t="n">
-        <v>2921069801.000001</v>
+        <v>4270256978.080001</v>
       </c>
       <c r="G13" t="n">
-        <v>4070777332.429999</v>
+        <v>4070777332.43</v>
       </c>
       <c r="H13" t="n">
         <v>2508671</v>
       </c>
       <c r="I13" t="n">
-        <v>690.0942527497625</v>
+        <v>1077.600007844791</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7175705184681043</v>
+        <v>1.049002838858524</v>
       </c>
     </row>
     <row r="14">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>399414729.73</v>
+        <v>634697163.96</v>
       </c>
       <c r="D14" t="n">
-        <v>249712265.42</v>
+        <v>329232501.9300001</v>
       </c>
       <c r="E14" t="n">
-        <v>872125806.4000001</v>
+        <v>1318282592.04</v>
       </c>
       <c r="F14" t="n">
-        <v>1439644725.580001</v>
+        <v>2072604624.200001</v>
       </c>
       <c r="G14" t="n">
         <v>1913029383.21</v>
@@ -948,10 +948,10 @@
         <v>1117400</v>
       </c>
       <c r="I14" t="n">
-        <v>780.4956205477001</v>
+        <v>1179.77679616968</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7525471057659996</v>
+        <v>1.083414945107763</v>
       </c>
     </row>
     <row r="15">
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1423339751.88</v>
+        <v>2127668419.17</v>
       </c>
       <c r="D15" t="n">
-        <v>585160054.3000002</v>
+        <v>838878483.4400001</v>
       </c>
       <c r="E15" t="n">
-        <v>1644386151.3</v>
+        <v>2558539730.059999</v>
       </c>
       <c r="F15" t="n">
-        <v>3190742710.590001</v>
+        <v>4671711700.000001</v>
       </c>
       <c r="G15" t="n">
         <v>4498590050.96</v>
@@ -984,10 +984,10 @@
         <v>2375282</v>
       </c>
       <c r="I15" t="n">
-        <v>692.2909158996702</v>
+        <v>1077.151988715445</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7092761675203313</v>
+        <v>1.038483535303035</v>
       </c>
     </row>
     <row r="16">
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>572171153.05</v>
+        <v>1054288686.59</v>
       </c>
       <c r="D16" t="n">
-        <v>313205103.83</v>
+        <v>429411068.3800001</v>
       </c>
       <c r="E16" t="n">
-        <v>1187473698.41</v>
+        <v>1832473957.66</v>
       </c>
       <c r="F16" t="n">
-        <v>2190283875.210001</v>
+        <v>3123705000.3</v>
       </c>
       <c r="G16" t="n">
         <v>3027696254.190001</v>
@@ -1020,10 +1020,10 @@
         <v>1383523</v>
       </c>
       <c r="I16" t="n">
-        <v>858.2970419790638</v>
+        <v>1324.498369495845</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7234159873794761</v>
+        <v>1.031710164445041</v>
       </c>
     </row>
     <row r="17">
@@ -1038,16 +1038,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>317852676.55</v>
+        <v>560033348.67</v>
       </c>
       <c r="D17" t="n">
-        <v>94667056.88999999</v>
+        <v>134564964.21</v>
       </c>
       <c r="E17" t="n">
-        <v>597205416.1299999</v>
+        <v>940406629.4199998</v>
       </c>
       <c r="F17" t="n">
-        <v>985431340.7600001</v>
+        <v>1448041841.87</v>
       </c>
       <c r="G17" t="n">
         <v>1335879557.2</v>
@@ -1056,10 +1056,10 @@
         <v>1151967</v>
       </c>
       <c r="I17" t="n">
-        <v>518.422329919173</v>
+        <v>816.3485841347884</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7376648107599324</v>
+        <v>1.083961375159519</v>
       </c>
     </row>
     <row r="18">
@@ -1074,16 +1074,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>234411189.73</v>
+        <v>411405116.19</v>
       </c>
       <c r="D18" t="n">
-        <v>155474973.17</v>
+        <v>228237179.39</v>
       </c>
       <c r="E18" t="n">
-        <v>739124949.6200001</v>
+        <v>1132614013.93</v>
       </c>
       <c r="F18" t="n">
-        <v>1199090780.65</v>
+        <v>1771898437.87</v>
       </c>
       <c r="G18" t="n">
         <v>1670482094.38</v>
@@ -1092,10 +1092,10 @@
         <v>1064904</v>
       </c>
       <c r="I18" t="n">
-        <v>694.0766018533127</v>
+        <v>1063.583209312764</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7178112143099884</v>
+        <v>1.060710823439051</v>
       </c>
     </row>
     <row r="19">
@@ -1110,16 +1110,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>218915178</v>
+        <v>376661912.25</v>
       </c>
       <c r="D19" t="n">
-        <v>90989604.97</v>
+        <v>124977026.93</v>
       </c>
       <c r="E19" t="n">
-        <v>533284332.48</v>
+        <v>842944085.0900002</v>
       </c>
       <c r="F19" t="n">
-        <v>886259955.2399998</v>
+        <v>1310610222.86</v>
       </c>
       <c r="G19" t="n">
         <v>1202937867.7</v>
@@ -1128,10 +1128,10 @@
         <v>1036883</v>
       </c>
       <c r="I19" t="n">
-        <v>514.3148575875966</v>
+        <v>812.9596927425757</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7367462435400061</v>
+        <v>1.089507827503899</v>
       </c>
     </row>
     <row r="20">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1414065978.65</v>
+        <v>2202457162.88</v>
       </c>
       <c r="D20" t="n">
-        <v>539804808.75</v>
+        <v>771094326.8399998</v>
       </c>
       <c r="E20" t="n">
-        <v>1987372046.88</v>
+        <v>3077862209.880001</v>
       </c>
       <c r="F20" t="n">
-        <v>3714716495.150001</v>
+        <v>5387164582.4</v>
       </c>
       <c r="G20" t="n">
         <v>5022698599.97</v>
@@ -1164,10 +1164,10 @@
         <v>2653455</v>
       </c>
       <c r="I20" t="n">
-        <v>748.9752216939802</v>
+        <v>1159.945131867697</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7395857866470802</v>
+        <v>1.072563777255553</v>
       </c>
     </row>
     <row r="21">
@@ -1182,16 +1182,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>359939441.03</v>
+        <v>541999636.33</v>
       </c>
       <c r="D21" t="n">
-        <v>221534522.94</v>
+        <v>278183559.75</v>
       </c>
       <c r="E21" t="n">
-        <v>592065400.96</v>
+        <v>909438954.6400001</v>
       </c>
       <c r="F21" t="n">
-        <v>1099949971.41</v>
+        <v>1569098475.51</v>
       </c>
       <c r="G21" t="n">
         <v>1458912150.57</v>
@@ -1200,10 +1200,10 @@
         <v>1025353</v>
       </c>
       <c r="I21" t="n">
-        <v>577.4259215704251</v>
+        <v>886.9520590859929</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7539521629045633</v>
+        <v>1.075526360443944</v>
       </c>
     </row>
     <row r="22">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>342871839.99</v>
+        <v>580348916.59</v>
       </c>
       <c r="D22" t="n">
-        <v>169673136.1</v>
+        <v>234136244.57</v>
       </c>
       <c r="E22" t="n">
-        <v>801281354.6399999</v>
+        <v>1253779779.1</v>
       </c>
       <c r="F22" t="n">
-        <v>1303173910.91</v>
+        <v>1933747382.5</v>
       </c>
       <c r="G22" t="n">
         <v>1757405296.36</v>
@@ -1236,10 +1236,10 @@
         <v>1252278</v>
       </c>
       <c r="I22" t="n">
-        <v>639.859004661904</v>
+        <v>1001.199237789053</v>
       </c>
       <c r="J22" t="n">
-        <v>0.741532937000463</v>
+        <v>1.100342298105762</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>343559658.12</v>
+        <v>562009752.28</v>
       </c>
       <c r="D23" t="n">
-        <v>201135148.67</v>
+        <v>285876219.65</v>
       </c>
       <c r="E23" t="n">
-        <v>808069548.1999998</v>
+        <v>1234683811.82</v>
       </c>
       <c r="F23" t="n">
-        <v>1398593250.89</v>
+        <v>2044577363.98</v>
       </c>
       <c r="G23" t="n">
-        <v>1940894048.080001</v>
+        <v>1940894048.08</v>
       </c>
       <c r="H23" t="n">
         <v>1188805</v>
       </c>
       <c r="I23" t="n">
-        <v>679.7326291528045</v>
+        <v>1038.592377908909</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7205922715222589</v>
+        <v>1.053420389434738</v>
       </c>
     </row>
     <row r="24">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>198622792.55</v>
+        <v>360268335.64</v>
       </c>
       <c r="D24" t="n">
-        <v>86694684.37999998</v>
+        <v>119831373.33</v>
       </c>
       <c r="E24" t="n">
-        <v>348387056.62</v>
+        <v>548394833.4400001</v>
       </c>
       <c r="F24" t="n">
-        <v>626447075.8700001</v>
+        <v>925604231.4300002</v>
       </c>
       <c r="G24" t="n">
         <v>863726942.5900002</v>
@@ -1308,10 +1308,10 @@
         <v>900540</v>
       </c>
       <c r="I24" t="n">
-        <v>386.864610811291</v>
+        <v>608.9622153818821</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7252837036569859</v>
+        <v>1.071639873423947</v>
       </c>
     </row>
     <row r="25">
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>267471636.89</v>
+        <v>483631437.44</v>
       </c>
       <c r="D25" t="n">
-        <v>184057472.81</v>
+        <v>262475689.66</v>
       </c>
       <c r="E25" t="n">
-        <v>648025226.71</v>
+        <v>1001815758.23</v>
       </c>
       <c r="F25" t="n">
-        <v>1153103461.41</v>
+        <v>1681581754.31</v>
       </c>
       <c r="G25" t="n">
         <v>1532358428.49</v>
@@ -1344,13 +1344,13 @@
         <v>988059</v>
       </c>
       <c r="I25" t="n">
-        <v>655.8568129129941</v>
+        <v>1013.923012927366</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7525024432738485</v>
+        <v>1.09738147619095</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>